--- a/groups/22-23/tasks_results/all.xlsx
+++ b/groups/22-23/tasks_results/all.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="293">
   <si>
     <t>Описание</t>
   </si>
@@ -1479,13 +1479,13 @@
         <v>164</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>42</v>
       </c>
       <c r="F4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>45</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3528,11 +3528,14 @@
       <c r="C84" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="D84" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F84" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4183,6 +4186,12 @@
       </c>
       <c r="C124" s="3" t="s">
         <v>69</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:12">

--- a/groups/22-23/tasks_results/all.xlsx
+++ b/groups/22-23/tasks_results/all.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="293">
   <si>
     <t>Описание</t>
   </si>
@@ -1485,13 +1485,13 @@
         <v>42</v>
       </c>
       <c r="F4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>49</v>
@@ -4005,7 +4005,16 @@
         <v>71</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>96</v>
